--- a/myapp/files/9_MethodComparePercent/Scenario 321.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 321.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5475</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.09447465216696</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -593,10 +593,10 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.395256916996047</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5913</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.18203262434032</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.395256916996047</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>2244</v>
+        <v>9462</v>
       </c>
       <c r="F4" t="n">
-        <v>2.31803813813193</v>
+        <v>1.89149208379978</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.81818181818182</v>
+        <v>1.58102766798419</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>3082</v>
+        <v>12982</v>
       </c>
       <c r="F5" t="n">
-        <v>3.18368696155197</v>
+        <v>2.59515432592356</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>1.81818181818182</v>
+        <v>1.58102766798419</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>5360</v>
+        <v>12170</v>
       </c>
       <c r="F6" t="n">
-        <v>5.5368468896556</v>
+        <v>2.43283224052455</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.81818181818182</v>
+        <v>1.18577075098814</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>612</v>
+        <v>7215</v>
       </c>
       <c r="F7" t="n">
-        <v>0.632192219490528</v>
+        <v>1.44230769230769</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.81818181818182</v>
+        <v>1.18577075098814</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2250</v>
+        <v>14820</v>
       </c>
       <c r="F8" t="n">
-        <v>2.32423610106812</v>
+        <v>2.96257796257796</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
@@ -821,10 +821,10 @@
         <v>7.14285714285714</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.63636363636364</v>
+        <v>3.16205533596838</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>1782</v>
+        <v>22861</v>
       </c>
       <c r="F9" t="n">
-        <v>1.84079499204595</v>
+        <v>4.57000639692947</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>2.85714285714286</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>1.81818181818182</v>
+        <v>5.13833992094862</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2017</v>
+        <v>19409</v>
       </c>
       <c r="F10" t="n">
-        <v>2.08354854037973</v>
+        <v>3.87993762993763</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>3.63636363636364</v>
+        <v>5.92885375494071</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>2100</v>
+        <v>13639</v>
       </c>
       <c r="F11" t="n">
-        <v>2.16928702766357</v>
+        <v>2.72649128418359</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>1.81818181818182</v>
+        <v>2.76679841897233</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6383</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.27598752598753</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.18577075098814</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>252</v>
+        <v>30661</v>
       </c>
       <c r="F13" t="n">
-        <v>0.260314443319629</v>
+        <v>6.12925795618103</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>1.81818181818182</v>
+        <v>3.95256916996047</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>15261</v>
+        <v>76856</v>
       </c>
       <c r="F14" t="n">
-        <v>15.764518728178</v>
+        <v>15.3638253638254</v>
       </c>
       <c r="G14" t="n">
         <v>5</v>
@@ -1049,10 +1049,10 @@
         <v>7.14285714285714</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
-        <v>14.5454545454545</v>
+        <v>9.48616600790514</v>
       </c>
       <c r="K14" t="n">
         <v>13</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>6906</v>
+        <v>51644</v>
       </c>
       <c r="F15" t="n">
-        <v>7.13385533954507</v>
+        <v>10.3238445546138</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -1087,16 +1087,16 @@
         <v>12.8571428571429</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
-        <v>9.09090909090909</v>
+        <v>10.6719367588933</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>12.8571428571429</v>
+        <v>11.4285714285714</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>1624</v>
+        <v>27026</v>
       </c>
       <c r="F16" t="n">
-        <v>1.67758196805983</v>
+        <v>5.4026067487606</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1125,10 +1125,10 @@
         <v>5.71428571428571</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>1.81818181818182</v>
+        <v>4.34782608695652</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>803</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.160522948984487</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.790513833992095</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>4590</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.917559571405725</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.76679841897233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>10126</v>
+        <v>31077</v>
       </c>
       <c r="F19" t="n">
-        <v>10.4600954486292</v>
+        <v>6.21241803934112</v>
       </c>
       <c r="G19" t="n">
         <v>12</v>
@@ -1239,10 +1239,10 @@
         <v>17.1428571428571</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>9.09090909090909</v>
+        <v>7.11462450592885</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>11058</v>
+        <v>39223</v>
       </c>
       <c r="F20" t="n">
-        <v>11.4228456913828</v>
+        <v>7.84083639852871</v>
       </c>
       <c r="G20" t="n">
         <v>18</v>
@@ -1277,10 +1277,10 @@
         <v>25.7142857142857</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J20" t="n">
-        <v>10.9090909090909</v>
+        <v>11.8577075098814</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>675</v>
+        <v>31160</v>
       </c>
       <c r="F21" t="n">
-        <v>0.697270830320435</v>
+        <v>6.22901007516392</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J21" t="n">
-        <v>1.81818181818182</v>
+        <v>6.71936758893281</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2784</v>
+        <v>4160</v>
       </c>
       <c r="F22" t="n">
-        <v>2.87585480238828</v>
+        <v>0.831600831600832</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.81818181818182</v>
+        <v>0.790513833992095</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>6126</v>
+        <v>7278</v>
       </c>
       <c r="F23" t="n">
-        <v>6.32812015784146</v>
+        <v>1.45490164720934</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.63636363636364</v>
+        <v>1.58102766798419</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>5706</v>
+        <v>12467</v>
       </c>
       <c r="F24" t="n">
-        <v>5.89426275230874</v>
+        <v>2.49220374220374</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -1429,10 +1429,10 @@
         <v>4.28571428571429</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>5.45454545454545</v>
+        <v>2.76679841897233</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>6916</v>
+        <v>18737</v>
       </c>
       <c r="F25" t="n">
-        <v>7.14418527777204</v>
+        <v>3.74560211098673</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1467,10 +1467,10 @@
         <v>5.71428571428571</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J25" t="n">
-        <v>10.9090909090909</v>
+        <v>6.71936758893281</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>9925</v>
+        <v>34229</v>
       </c>
       <c r="F26" t="n">
-        <v>10.2524636902671</v>
+        <v>6.84251559251559</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.42857142857143</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J26" t="n">
-        <v>10.9090909090909</v>
+        <v>5.92885375494071</v>
       </c>
       <c r="K26" t="n">
         <v>9</v>
